--- a/jpcore-r4/feature/swg2-diagnosticreport-radiology-example/StructureDefinition-jp-immunization-manufactureddate.xlsx
+++ b/jpcore-r4/feature/swg2-diagnosticreport-radiology-example/StructureDefinition-jp-immunization-manufactureddate.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-06-08T06:13:42+00:00</t>
+    <t>2023-06-09T01:41:59+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/feature/swg2-diagnosticreport-radiology-example/StructureDefinition-jp-immunization-manufactureddate.xlsx
+++ b/jpcore-r4/feature/swg2-diagnosticreport-radiology-example/StructureDefinition-jp-immunization-manufactureddate.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-06-09T01:41:59+00:00</t>
+    <t>2023-06-09T02:24:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
